--- a/Lessons/File/test.xlsx
+++ b/Lessons/File/test.xlsx
@@ -1,56 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PyCharm\Projects\pythonProject\Winter_2024\Lessons\File\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF53873-01EA-4108-8BEE-E8CE6514D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="New" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>1 чел</t>
-  </si>
-  <si>
-    <t>2 чел</t>
-  </si>
-  <si>
-    <t>3 чел</t>
-  </si>
-  <si>
-    <t>4 чел</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,60 +407,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Lessons/File/test.xlsx
+++ b/Lessons/File/test.xlsx
@@ -2,27 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,15 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,282 +425,149 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Товар</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2002</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2003</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2004</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2005</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
